--- a/src/main/resources/room generator.xlsx
+++ b/src/main/resources/room generator.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacek\IdeaProjects\bookingRR\booking\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056C9862-BAA2-4543-A317-8107B5253C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A668FF5E-E34E-4C42-BE1D-560F79073237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3390" windowWidth="38640" windowHeight="21240" xr2:uid="{57B1884C-E1D9-4835-829D-FEF12D67E0BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57B1884C-E1D9-4835-829D-FEF12D67E0BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>description</t>
   </si>
@@ -45,9 +46,6 @@
   </si>
   <si>
     <t>room_size_value</t>
-  </si>
-  <si>
-    <t>room_size_currency</t>
   </si>
   <si>
     <t>status</t>
@@ -90,6 +88,21 @@
   </si>
   <si>
     <t>is_tv</t>
+  </si>
+  <si>
+    <t>room_size_unit</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'</t>
+  </si>
+  <si>
+    <t>'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'</t>
   </si>
 </sst>
 </file>
@@ -454,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1A5EDE-3497-4CB8-9F96-3986C59DC418}">
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="S7" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,16 +489,16 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -497,40 +510,40 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
         <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -539,19 +552,19 @@
       </c>
       <c r="B2">
         <f ca="1">INT(RAND()*6)+1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"'Room for " &amp; B2 &amp; " people. Simply perfect.'"</f>
-        <v>'Room for 1 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">"'" &amp;IF(MOD(INT(RAND()*10),2)=0,"STANDARD","PREMIUM") &amp; "'"</f>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E2">
         <f ca="1">INT((RAND()+1)*10)*B2</f>
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F2" s="3" t="str">
         <f>"'EUR'"</f>
@@ -559,7 +572,7 @@
       </c>
       <c r="G2">
         <f ca="1">INT(RAND()+1)*IF(D2="STANDARD",6,10)*B2</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H2" t="str">
         <f>"'m2'"</f>
@@ -586,19 +599,19 @@
       </c>
       <c r="N2" s="1" t="str">
         <f ca="1">IF($D2="'PREMIUM'", "'true'", "'false'")</f>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O2" s="1" t="str">
         <f t="shared" ref="O2:Q17" ca="1" si="0">IF($D2="'PREMIUM'", "'true'", "'false'")</f>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P2" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R2" s="1" t="str">
         <f>"'true'"</f>
@@ -606,7 +619,7 @@
       </c>
       <c r="S2" t="str">
         <f t="shared" ref="S2:S65" ca="1" si="1">"INSERT INTO room (" &amp; $A$1 &amp; ", " &amp; $B$1 &amp; ", "&amp; $C$1 &amp; ", "&amp;$D$1 &amp; ", "&amp;$E$1 &amp; ", "&amp;$F$1 &amp; ", "&amp; $G$1 &amp; ", "&amp; $H$1 &amp; ", "&amp; $I$1 &amp; ", "&amp; $J$1 &amp; ", "&amp; $K$1 &amp; ", "&amp; $L$1 &amp; ", "&amp; $M$1 &amp; ", " &amp; $N$1 &amp; ", "&amp; $O$1 &amp; ", "&amp; $P$1 &amp; ", "&amp; $Q$1 &amp; ", "&amp; $R$1 &amp; ")  VALUES (" &amp; $A2 &amp; ", "&amp; $B2 &amp; ", "&amp; $C2 &amp; ", "&amp; $D2 &amp; ", "&amp; $E2 &amp; ", "&amp; $F2 &amp; ", "&amp; $G2 &amp; ", "&amp; $H2 &amp;", "&amp; $I2 &amp; ", "&amp; $J2 &amp; ", "&amp; $K2 &amp; ", "&amp; $L2 &amp; ", "&amp; $M2&amp; ", "&amp; $N2&amp; ", "&amp; $O2&amp; ", "&amp; $P2&amp; ", "&amp; $Q2&amp; ", "&amp; $R2 &amp; ");"</f>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (1, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 17, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (1, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 78, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -615,19 +628,19 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" ca="1" si="2">INT(RAND()*6)+1</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="3">"'Room for " &amp; B3 &amp; " people. Simply perfect.'"</f>
-        <v>'Room for 1 people. Simply perfect.'</v>
+        <v>'Room for 5 people. Simply perfect.'</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D66" ca="1" si="4">"'" &amp;IF(MOD(INT(RAND()*10),2)=0,"STANDARD","PREMIUM") &amp; "'"</f>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="5">INT((RAND()+1)*10)*B3</f>
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="str">
         <f t="shared" ref="F3:F66" si="6">"'EUR'"</f>
@@ -635,7 +648,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="7">INT(RAND()+1)*IF(D3="STANDARD",6,10)*B3</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="8">"'m2'"</f>
@@ -643,7 +656,7 @@
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I66" ca="1" si="9">"'" &amp; IF(INT(RAND()*2)=1,"BATH","SHOWER") &amp; "'"</f>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J66" si="10">"'" &amp; "ACTIVE" &amp; "'"</f>
@@ -662,19 +675,19 @@
       </c>
       <c r="N3" s="1" t="str">
         <f t="shared" ref="N3:Q34" ca="1" si="12">IF($D3="'PREMIUM'", "'true'", "'false'")</f>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O3" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P3" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q3" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R3" s="1" t="str">
         <f t="shared" ref="R3:R66" si="13">"'true'"</f>
@@ -682,7 +695,7 @@
       </c>
       <c r="S3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (2, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 14, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (2, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 65, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -699,11 +712,11 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F4" s="3" t="str">
         <f t="shared" si="6"/>
@@ -738,19 +751,19 @@
       </c>
       <c r="N4" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O4" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P4" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q4" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R4" s="1" t="str">
         <f t="shared" si="13"/>
@@ -758,7 +771,7 @@
       </c>
       <c r="S4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (3, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 90, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (3, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 95, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -767,11 +780,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 4 people. Simply perfect.'</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -779,7 +792,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3" t="str">
         <f t="shared" si="6"/>
@@ -787,7 +800,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="8"/>
@@ -795,7 +808,7 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="10"/>
@@ -834,7 +847,7 @@
       </c>
       <c r="S5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (4, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 38, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (4, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 64, 'EUR', 40, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -843,19 +856,19 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="6"/>
@@ -863,7 +876,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="8"/>
@@ -871,7 +884,7 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="10"/>
@@ -890,19 +903,19 @@
       </c>
       <c r="N6" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R6" s="1" t="str">
         <f t="shared" si="13"/>
@@ -910,7 +923,7 @@
       </c>
       <c r="S6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (5, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 36, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (5, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 14, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -919,11 +932,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 3 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -931,7 +944,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="6"/>
@@ -939,7 +952,7 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="8"/>
@@ -947,7 +960,7 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="10"/>
@@ -986,7 +999,7 @@
       </c>
       <c r="S7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (6, 3, 'Room for 3 people. Simply perfect.', 'STANDARD', 45, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (6, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 36, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -995,11 +1008,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1007,7 +1020,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1015,7 +1028,7 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="8"/>
@@ -1062,7 +1075,7 @@
       </c>
       <c r="S8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (7, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 36, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (7, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 17, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1071,11 +1084,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1083,7 +1096,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1091,7 +1104,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="8"/>
@@ -1099,7 +1112,7 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="10"/>
@@ -1138,7 +1151,7 @@
       </c>
       <c r="S9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (8, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 90, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (8, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 102, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1147,11 +1160,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1159,7 +1172,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1167,7 +1180,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="8"/>
@@ -1214,7 +1227,7 @@
       </c>
       <c r="S10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (9, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 90, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (9, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 36, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1231,11 +1244,11 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1251,7 +1264,7 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="10"/>
@@ -1270,19 +1283,19 @@
       </c>
       <c r="N11" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O11" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q11" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R11" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1290,7 +1303,7 @@
       </c>
       <c r="S11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (10, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 18, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (10, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 14, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1311,7 +1324,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1327,7 +1340,7 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="10"/>
@@ -1366,7 +1379,7 @@
       </c>
       <c r="S12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (11, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 33, 'EUR', 30, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (11, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 57, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1375,19 +1388,19 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 5 people. Simply perfect.'</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1395,7 +1408,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="8"/>
@@ -1403,7 +1416,7 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="10"/>
@@ -1422,19 +1435,19 @@
       </c>
       <c r="N13" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q13" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R13" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1442,7 +1455,7 @@
       </c>
       <c r="S13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (12, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 22, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (12, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 70, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1451,19 +1464,19 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1471,7 +1484,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="8"/>
@@ -1479,7 +1492,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="10"/>
@@ -1498,19 +1511,19 @@
       </c>
       <c r="N14" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O14" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q14" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R14" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1518,7 +1531,7 @@
       </c>
       <c r="S14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (13, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 75, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (13, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 102, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1527,11 +1540,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1539,7 +1552,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1547,7 +1560,7 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="8"/>
@@ -1594,7 +1607,7 @@
       </c>
       <c r="S15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (14, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 60, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (14, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 13, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1603,11 +1616,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 4 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1623,7 +1636,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="8"/>
@@ -1670,7 +1683,7 @@
       </c>
       <c r="S16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (15, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 60, 'EUR', 40, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (15, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 60, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1679,19 +1692,19 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 1 people. Simply perfect.'</v>
+        <v>'Room for 4 people. Simply perfect.'</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1699,7 +1712,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="8"/>
@@ -1726,19 +1739,19 @@
       </c>
       <c r="N17" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q17" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R17" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1746,7 +1759,7 @@
       </c>
       <c r="S17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (16, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 11, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (16, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 48, 'EUR', 40, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1755,11 +1768,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 3 people. Simply perfect.'</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1767,7 +1780,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1775,7 +1788,7 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="8"/>
@@ -1822,7 +1835,7 @@
       </c>
       <c r="S18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (17, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 75, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (17, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 54, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1831,11 +1844,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 6 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1843,7 +1856,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="F19" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1851,7 +1864,7 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="8"/>
@@ -1859,7 +1872,7 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="10"/>
@@ -1898,7 +1911,7 @@
       </c>
       <c r="S19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (18, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 96, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (18, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 13, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1919,7 +1932,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1974,7 +1987,7 @@
       </c>
       <c r="S20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (19, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 78, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (19, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 96, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -1991,11 +2004,11 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2011,7 +2024,7 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="10"/>
@@ -2030,19 +2043,19 @@
       </c>
       <c r="N21" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O21" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q21" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R21" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2050,7 +2063,7 @@
       </c>
       <c r="S21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (20, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 32, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (20, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 22, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -2059,19 +2072,19 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 6 people. Simply perfect.'</v>
+        <v>'Room for 3 people. Simply perfect.'</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2079,7 +2092,7 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="8"/>
@@ -2087,7 +2100,7 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="10"/>
@@ -2106,19 +2119,19 @@
       </c>
       <c r="N22" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O22" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q22" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R22" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2126,7 +2139,7 @@
       </c>
       <c r="S22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (21, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 102, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (21, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 39, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -2135,19 +2148,19 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 3 people. Simply perfect.'</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2155,7 +2168,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="8"/>
@@ -2182,19 +2195,19 @@
       </c>
       <c r="N23" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O23" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q23" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R23" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2202,7 +2215,7 @@
       </c>
       <c r="S23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (22, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 24, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (22, 3, 'Room for 3 people. Simply perfect.', 'STANDARD', 57, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -2211,19 +2224,19 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 4 people. Simply perfect.'</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2231,7 +2244,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="8"/>
@@ -2258,19 +2271,19 @@
       </c>
       <c r="N24" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O24" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P24" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q24" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R24" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2278,7 +2291,7 @@
       </c>
       <c r="S24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (23, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 70, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (23, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 52, 'EUR', 40, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -2287,11 +2300,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 4 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2299,7 +2312,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2307,7 +2320,7 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="8"/>
@@ -2354,7 +2367,7 @@
       </c>
       <c r="S25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (24, 4, 'Room for 4 people. Simply perfect.', 'PREMIUM', 64, 'EUR', 40, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (24, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 84, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -2363,11 +2376,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 4 people. Simply perfect.'</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2375,7 +2388,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2383,7 +2396,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="8"/>
@@ -2430,7 +2443,7 @@
       </c>
       <c r="S26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (25, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 90, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (25, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 60, 'EUR', 40, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -2439,19 +2452,19 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 6 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2459,7 +2472,7 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="8"/>
@@ -2486,19 +2499,19 @@
       </c>
       <c r="N27" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O27" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P27" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q27" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R27" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2506,7 +2519,7 @@
       </c>
       <c r="S27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (26, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 84, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (26, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 22, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -2515,19 +2528,19 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 6 people. Simply perfect.'</v>
+        <v>'Room for 4 people. Simply perfect.'</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2535,7 +2548,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="8"/>
@@ -2562,19 +2575,19 @@
       </c>
       <c r="N28" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O28" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P28" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q28" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R28" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2582,7 +2595,7 @@
       </c>
       <c r="S28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (27, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 108, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (27, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 76, 'EUR', 40, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -2591,11 +2604,11 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 3 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2603,7 +2616,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2611,7 +2624,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="8"/>
@@ -2658,7 +2671,7 @@
       </c>
       <c r="S29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (28, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 57, 'EUR', 30, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (28, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 36, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -2667,19 +2680,19 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2687,7 +2700,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="8"/>
@@ -2695,7 +2708,7 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="10"/>
@@ -2714,19 +2727,19 @@
       </c>
       <c r="N30" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O30" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P30" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q30" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R30" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2734,7 +2747,7 @@
       </c>
       <c r="S30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (29, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 28, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (29, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 114, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -2751,11 +2764,11 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2771,7 +2784,7 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="10"/>
@@ -2790,19 +2803,19 @@
       </c>
       <c r="N31" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O31" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P31" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q31" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R31" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2810,7 +2823,7 @@
       </c>
       <c r="S31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (30, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 108, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (30, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 72, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -2819,19 +2832,19 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2839,7 +2852,7 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="8"/>
@@ -2866,19 +2879,19 @@
       </c>
       <c r="N32" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O32" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P32" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q32" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R32" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2886,7 +2899,7 @@
       </c>
       <c r="S32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (31, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 60, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (31, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 17, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -2895,19 +2908,19 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 4 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2915,7 +2928,7 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="8"/>
@@ -2942,19 +2955,19 @@
       </c>
       <c r="N33" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O33" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P33" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q33" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R33" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2962,7 +2975,7 @@
       </c>
       <c r="S33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (32, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 44, 'EUR', 40, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (32, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 78, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -2971,11 +2984,11 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 4 people. Simply perfect.'</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2983,7 +2996,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2991,7 +3004,7 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="8"/>
@@ -2999,7 +3012,7 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="10"/>
@@ -3038,7 +3051,7 @@
       </c>
       <c r="S34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (33, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 30, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (33, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 40, 'EUR', 40, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -3047,19 +3060,19 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 1 people. Simply perfect.'</v>
+        <v>'Room for 3 people. Simply perfect.'</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" si="6"/>
@@ -3067,7 +3080,7 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="8"/>
@@ -3094,19 +3107,19 @@
       </c>
       <c r="N35" s="1" t="str">
         <f t="shared" ref="N35:Q66" ca="1" si="14">IF($D35="'PREMIUM'", "'true'", "'false'")</f>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O35" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P35" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q35" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R35" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3114,7 +3127,7 @@
       </c>
       <c r="S35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (34, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 18, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (34, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 36, 'EUR', 30, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -3123,19 +3136,19 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" si="6"/>
@@ -3143,7 +3156,7 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="8"/>
@@ -3151,7 +3164,7 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="10"/>
@@ -3170,19 +3183,19 @@
       </c>
       <c r="N36" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O36" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P36" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q36" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R36" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3190,7 +3203,7 @@
       </c>
       <c r="S36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (35, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 32, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (35, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 60, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -3199,11 +3212,11 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 6 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3211,7 +3224,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="5"/>
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="F37" s="3" t="str">
         <f t="shared" si="6"/>
@@ -3219,7 +3232,7 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="8"/>
@@ -3266,7 +3279,7 @@
       </c>
       <c r="S37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (36, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 114, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (36, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 24, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -3275,19 +3288,19 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 5 people. Simply perfect.'</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" si="6"/>
@@ -3295,7 +3308,7 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="8"/>
@@ -3322,19 +3335,19 @@
       </c>
       <c r="N38" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O38" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P38" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q38" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R38" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3342,7 +3355,7 @@
       </c>
       <c r="S38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (37, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 28, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (37, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 85, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -3351,19 +3364,19 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 6 people. Simply perfect.'</v>
+        <v>'Room for 3 people. Simply perfect.'</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="F39" s="3" t="str">
         <f t="shared" si="6"/>
@@ -3371,7 +3384,7 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="8"/>
@@ -3379,7 +3392,7 @@
       </c>
       <c r="I39" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="10"/>
@@ -3398,19 +3411,19 @@
       </c>
       <c r="N39" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O39" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P39" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q39" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R39" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3418,7 +3431,7 @@
       </c>
       <c r="S39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (38, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 102, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (38, 3, 'Room for 3 people. Simply perfect.', 'STANDARD', 54, 'EUR', 30, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -3427,19 +3440,19 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 4 people. Simply perfect.'</v>
+        <v>'Room for 3 people. Simply perfect.'</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F40" s="3" t="str">
         <f t="shared" si="6"/>
@@ -3447,7 +3460,7 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="8"/>
@@ -3474,19 +3487,19 @@
       </c>
       <c r="N40" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O40" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P40" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q40" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R40" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3494,7 +3507,7 @@
       </c>
       <c r="S40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (39, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 48, 'EUR', 40, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (39, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 36, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -3503,19 +3516,19 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F41" s="3" t="str">
         <f t="shared" si="6"/>
@@ -3523,7 +3536,7 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="8"/>
@@ -3550,19 +3563,19 @@
       </c>
       <c r="N41" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O41" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P41" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q41" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R41" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3570,7 +3583,7 @@
       </c>
       <c r="S41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (40, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 20, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (40, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 14, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -3579,19 +3592,19 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F42" s="3" t="str">
         <f t="shared" si="6"/>
@@ -3599,7 +3612,7 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="8"/>
@@ -3626,19 +3639,19 @@
       </c>
       <c r="N42" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O42" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P42" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q42" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R42" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3646,7 +3659,7 @@
       </c>
       <c r="S42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (41, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 60, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (41, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 34, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -3663,7 +3676,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="5"/>
@@ -3683,7 +3696,7 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="10"/>
@@ -3702,19 +3715,19 @@
       </c>
       <c r="N43" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O43" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P43" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q43" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R43" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3722,7 +3735,7 @@
       </c>
       <c r="S43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (42, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 90, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (42, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 90, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -3731,19 +3744,19 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 1 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F44" s="3" t="str">
         <f t="shared" si="6"/>
@@ -3751,7 +3764,7 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="8"/>
@@ -3778,19 +3791,19 @@
       </c>
       <c r="N44" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O44" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P44" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q44" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R44" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3798,7 +3811,7 @@
       </c>
       <c r="S44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (43, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 16, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (43, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 66, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
@@ -3807,19 +3820,19 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 1 people. Simply perfect.'</v>
+        <v>'Room for 4 people. Simply perfect.'</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F45" s="3" t="str">
         <f t="shared" si="6"/>
@@ -3827,7 +3840,7 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="8"/>
@@ -3854,19 +3867,19 @@
       </c>
       <c r="N45" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O45" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P45" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q45" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R45" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3874,7 +3887,7 @@
       </c>
       <c r="S45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (44, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 16, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (44, 4, 'Room for 4 people. Simply perfect.', 'PREMIUM', 72, 'EUR', 40, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -3895,7 +3908,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F46" s="3" t="str">
         <f t="shared" si="6"/>
@@ -3950,7 +3963,7 @@
       </c>
       <c r="S46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (45, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 17, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (45, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 14, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
@@ -3959,19 +3972,19 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 3 people. Simply perfect.'</v>
+        <v>'Room for 4 people. Simply perfect.'</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F47" s="3" t="str">
         <f t="shared" si="6"/>
@@ -3979,7 +3992,7 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="8"/>
@@ -4006,19 +4019,19 @@
       </c>
       <c r="N47" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O47" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P47" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q47" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R47" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4026,7 +4039,7 @@
       </c>
       <c r="S47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (46, 3, 'Room for 3 people. Simply perfect.', 'STANDARD', 39, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (46, 4, 'Room for 4 people. Simply perfect.', 'PREMIUM', 76, 'EUR', 40, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
@@ -4043,11 +4056,11 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F48" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4082,19 +4095,19 @@
       </c>
       <c r="N48" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O48" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P48" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q48" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R48" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4102,7 +4115,7 @@
       </c>
       <c r="S48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (47, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 108, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (47, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 66, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -4111,19 +4124,19 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 4 people. Simply perfect.'</v>
+        <v>'Room for 5 people. Simply perfect.'</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F49" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4131,7 +4144,7 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="8"/>
@@ -4139,7 +4152,7 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="10"/>
@@ -4158,19 +4171,19 @@
       </c>
       <c r="N49" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O49" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P49" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q49" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R49" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4178,7 +4191,7 @@
       </c>
       <c r="S49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (48, 4, 'Room for 4 people. Simply perfect.', 'PREMIUM', 56, 'EUR', 40, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (48, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 60, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -4187,11 +4200,11 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 4 people. Simply perfect.'</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4199,7 +4212,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F50" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4207,7 +4220,7 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="8"/>
@@ -4254,7 +4267,7 @@
       </c>
       <c r="S50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (49, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 32, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (49, 4, 'Room for 4 people. Simply perfect.', 'PREMIUM', 52, 'EUR', 40, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -4263,19 +4276,19 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F51" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4283,7 +4296,7 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="8"/>
@@ -4291,7 +4304,7 @@
       </c>
       <c r="I51" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="10"/>
@@ -4310,19 +4323,19 @@
       </c>
       <c r="N51" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O51" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P51" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q51" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R51" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4330,7 +4343,7 @@
       </c>
       <c r="S51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (50, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 65, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (50, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 32, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -4339,11 +4352,11 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 4 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4351,7 +4364,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F52" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4359,7 +4372,7 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="8"/>
@@ -4367,7 +4380,7 @@
       </c>
       <c r="I52" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="10"/>
@@ -4406,7 +4419,7 @@
       </c>
       <c r="S52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (51, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 64, 'EUR', 40, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (51, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 96, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -4415,19 +4428,19 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F53" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4435,7 +4448,7 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="8"/>
@@ -4462,19 +4475,19 @@
       </c>
       <c r="N53" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O53" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P53" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q53" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R53" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4482,7 +4495,7 @@
       </c>
       <c r="S53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (52, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 90, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (52, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 108, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -4491,19 +4504,19 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 4 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F54" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4511,7 +4524,7 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="8"/>
@@ -4519,7 +4532,7 @@
       </c>
       <c r="I54" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="10"/>
@@ -4538,19 +4551,19 @@
       </c>
       <c r="N54" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O54" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P54" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q54" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R54" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4558,7 +4571,7 @@
       </c>
       <c r="S54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (53, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 64, 'EUR', 40, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (53, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 34, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
@@ -4579,7 +4592,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="F55" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4595,7 +4608,7 @@
       </c>
       <c r="I55" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="10"/>
@@ -4634,7 +4647,7 @@
       </c>
       <c r="S55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (54, 4, 'Room for 4 people. Simply perfect.', 'PREMIUM', 76, 'EUR', 40, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (54, 4, 'Room for 4 people. Simply perfect.', 'PREMIUM', 44, 'EUR', 40, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -4643,19 +4656,19 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 6 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F56" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4663,7 +4676,7 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="8"/>
@@ -4690,19 +4703,19 @@
       </c>
       <c r="N56" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O56" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P56" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q56" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R56" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4710,7 +4723,7 @@
       </c>
       <c r="S56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (55, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 84, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (55, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 18, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -4719,19 +4732,19 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 5 people. Simply perfect.'</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F57" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4739,7 +4752,7 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="8"/>
@@ -4766,19 +4779,19 @@
       </c>
       <c r="N57" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O57" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P57" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q57" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R57" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4786,7 +4799,7 @@
       </c>
       <c r="S57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (56, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 32, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (56, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 50, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
@@ -4795,11 +4808,11 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 1 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4807,7 +4820,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F58" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4815,7 +4828,7 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="8"/>
@@ -4862,7 +4875,7 @@
       </c>
       <c r="S58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (57, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 12, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (57, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 32, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
@@ -4871,19 +4884,19 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="F59" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4891,7 +4904,7 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="8"/>
@@ -4899,7 +4912,7 @@
       </c>
       <c r="I59" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="10"/>
@@ -4918,19 +4931,19 @@
       </c>
       <c r="N59" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O59" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P59" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q59" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R59" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4938,7 +4951,7 @@
       </c>
       <c r="S59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (58, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 65, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (58, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 108, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
@@ -4947,11 +4960,11 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4959,7 +4972,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F60" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4967,7 +4980,7 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="8"/>
@@ -4975,7 +4988,7 @@
       </c>
       <c r="I60" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="10"/>
@@ -5014,7 +5027,7 @@
       </c>
       <c r="S60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (59, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 26, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (59, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 78, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
@@ -5023,19 +5036,19 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F61" s="3" t="str">
         <f t="shared" si="6"/>
@@ -5043,7 +5056,7 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="8"/>
@@ -5051,7 +5064,7 @@
       </c>
       <c r="I61" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="10"/>
@@ -5070,19 +5083,19 @@
       </c>
       <c r="N61" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O61" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P61" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q61" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R61" s="1" t="str">
         <f t="shared" si="13"/>
@@ -5090,7 +5103,7 @@
       </c>
       <c r="S61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (60, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 55, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (60, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 11, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -5099,19 +5112,19 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 6 people. Simply perfect.'</v>
+        <v>'Room for 4 people. Simply perfect.'</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F62" s="3" t="str">
         <f t="shared" si="6"/>
@@ -5119,7 +5132,7 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="8"/>
@@ -5146,19 +5159,19 @@
       </c>
       <c r="N62" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O62" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P62" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q62" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R62" s="1" t="str">
         <f t="shared" si="13"/>
@@ -5166,7 +5179,7 @@
       </c>
       <c r="S62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (61, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 84, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (61, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 72, 'EUR', 40, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -5175,11 +5188,11 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 1 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5187,7 +5200,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F63" s="3" t="str">
         <f t="shared" si="6"/>
@@ -5195,7 +5208,7 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="8"/>
@@ -5242,7 +5255,7 @@
       </c>
       <c r="S63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (62, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 12, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (62, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 34, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -5251,11 +5264,11 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 3 people. Simply perfect.'</v>
+        <v>'Room for 5 people. Simply perfect.'</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5263,7 +5276,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F64" s="3" t="str">
         <f t="shared" si="6"/>
@@ -5271,7 +5284,7 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="8"/>
@@ -5279,7 +5292,7 @@
       </c>
       <c r="I64" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="10"/>
@@ -5318,7 +5331,7 @@
       </c>
       <c r="S64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (63, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 30, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (63, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 95, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
@@ -5327,19 +5340,19 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 3 people. Simply perfect.'</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F65" s="3" t="str">
         <f t="shared" si="6"/>
@@ -5347,7 +5360,7 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="8"/>
@@ -5374,19 +5387,19 @@
       </c>
       <c r="N65" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O65" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P65" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q65" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R65" s="1" t="str">
         <f t="shared" si="13"/>
@@ -5394,7 +5407,7 @@
       </c>
       <c r="S65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (64, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 28, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (64, 3, 'Room for 3 people. Simply perfect.', 'STANDARD', 30, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
@@ -5403,19 +5416,19 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F66" s="3" t="str">
         <f t="shared" si="6"/>
@@ -5423,7 +5436,7 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="8"/>
@@ -5431,7 +5444,7 @@
       </c>
       <c r="I66" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" si="10"/>
@@ -5450,19 +5463,19 @@
       </c>
       <c r="N66" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O66" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P66" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q66" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R66" s="1" t="str">
         <f t="shared" si="13"/>
@@ -5470,7 +5483,7 @@
       </c>
       <c r="S66" t="str">
         <f t="shared" ref="S66:S101" ca="1" si="15">"INSERT INTO room (" &amp; $A$1 &amp; ", " &amp; $B$1 &amp; ", "&amp; $C$1 &amp; ", "&amp;$D$1 &amp; ", "&amp;$E$1 &amp; ", "&amp;$F$1 &amp; ", "&amp; $G$1 &amp; ", "&amp; $H$1 &amp; ", "&amp; $I$1 &amp; ", "&amp; $J$1 &amp; ", "&amp; $K$1 &amp; ", "&amp; $L$1 &amp; ", "&amp; $M$1 &amp; ", " &amp; $N$1 &amp; ", "&amp; $O$1 &amp; ", "&amp; $P$1 &amp; ", "&amp; $Q$1 &amp; ", "&amp; $R$1 &amp; ")  VALUES (" &amp; $A66 &amp; ", "&amp; $B66 &amp; ", "&amp; $C66 &amp; ", "&amp; $D66 &amp; ", "&amp; $E66 &amp; ", "&amp; $F66 &amp; ", "&amp; $G66 &amp; ", "&amp; $H66 &amp;", "&amp; $I66 &amp; ", "&amp; $J66 &amp; ", "&amp; $K66 &amp; ", "&amp; $L66 &amp; ", "&amp; $M66&amp; ", "&amp; $N66&amp; ", "&amp; $O66&amp; ", "&amp; $P66&amp; ", "&amp; $Q66&amp; ", "&amp; $R66 &amp; ");"</f>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (65, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 24, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (65, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 12, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
@@ -5479,11 +5492,11 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B101" ca="1" si="16">INT(RAND()*6)+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="17">"'Room for " &amp; B67 &amp; " people. Simply perfect.'"</f>
-        <v>'Room for 1 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D101" ca="1" si="18">"'" &amp;IF(MOD(INT(RAND()*10),2)=0,"STANDARD","PREMIUM") &amp; "'"</f>
@@ -5491,7 +5504,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E101" ca="1" si="19">INT((RAND()+1)*10)*B67</f>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F67" s="3" t="str">
         <f t="shared" ref="F67:F101" si="20">"'EUR'"</f>
@@ -5499,7 +5512,7 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="21">INT(RAND()+1)*IF(D67="STANDARD",6,10)*B67</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H101" si="22">"'m2'"</f>
@@ -5546,7 +5559,7 @@
       </c>
       <c r="S67" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (66, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 14, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (66, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 30, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
@@ -5563,7 +5576,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="19"/>
@@ -5583,7 +5596,7 @@
       </c>
       <c r="I68" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J68" t="str">
         <f t="shared" si="24"/>
@@ -5602,19 +5615,19 @@
       </c>
       <c r="N68" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O68" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P68" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q68" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R68" s="1" t="str">
         <f t="shared" si="27"/>
@@ -5622,7 +5635,7 @@
       </c>
       <c r="S68" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (67, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 13, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (67, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 13, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
@@ -5631,11 +5644,11 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 4 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5643,7 +5656,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="19"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F69" s="3" t="str">
         <f t="shared" si="20"/>
@@ -5651,7 +5664,7 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="21"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="22"/>
@@ -5698,7 +5711,7 @@
       </c>
       <c r="S69" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (68, 4, 'Room for 4 people. Simply perfect.', 'PREMIUM', 60, 'EUR', 40, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (68, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 66, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
@@ -5707,19 +5720,19 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 3 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="19"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F70" s="3" t="str">
         <f t="shared" si="20"/>
@@ -5727,7 +5740,7 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="21"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="22"/>
@@ -5735,7 +5748,7 @@
       </c>
       <c r="I70" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="24"/>
@@ -5754,19 +5767,19 @@
       </c>
       <c r="N70" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O70" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P70" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q70" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R70" s="1" t="str">
         <f t="shared" si="27"/>
@@ -5774,7 +5787,7 @@
       </c>
       <c r="S70" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (69, 3, 'Room for 3 people. Simply perfect.', 'STANDARD', 48, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (69, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 34, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
@@ -5783,11 +5796,11 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 4 people. Simply perfect.'</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5795,7 +5808,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="19"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F71" s="3" t="str">
         <f t="shared" si="20"/>
@@ -5803,7 +5816,7 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="21"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="22"/>
@@ -5811,7 +5824,7 @@
       </c>
       <c r="I71" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" si="24"/>
@@ -5850,7 +5863,7 @@
       </c>
       <c r="S71" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (70, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 55, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (70, 4, 'Room for 4 people. Simply perfect.', 'PREMIUM', 52, 'EUR', 40, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
@@ -5859,19 +5872,19 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 3 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="19"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F72" s="3" t="str">
         <f t="shared" si="20"/>
@@ -5879,7 +5892,7 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="21"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="22"/>
@@ -5906,19 +5919,19 @@
       </c>
       <c r="N72" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O72" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P72" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q72" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R72" s="1" t="str">
         <f t="shared" si="27"/>
@@ -5926,7 +5939,7 @@
       </c>
       <c r="S72" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (71, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 57, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (71, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 60, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
@@ -5947,7 +5960,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F73" s="3" t="str">
         <f t="shared" si="20"/>
@@ -6002,7 +6015,7 @@
       </c>
       <c r="S73" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (72, 3, 'Room for 3 people. Simply perfect.', 'STANDARD', 45, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (72, 3, 'Room for 3 people. Simply perfect.', 'STANDARD', 48, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
@@ -6011,11 +6024,11 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 1 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -6023,7 +6036,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="19"/>
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="F74" s="3" t="str">
         <f t="shared" si="20"/>
@@ -6031,7 +6044,7 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="21"/>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="22"/>
@@ -6039,7 +6052,7 @@
       </c>
       <c r="I74" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="24"/>
@@ -6078,7 +6091,7 @@
       </c>
       <c r="S74" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (73, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 13, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (73, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 96, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
@@ -6087,11 +6100,11 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 6 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -6099,7 +6112,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="19"/>
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="F75" s="3" t="str">
         <f t="shared" si="20"/>
@@ -6107,7 +6120,7 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="21"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="22"/>
@@ -6115,7 +6128,7 @@
       </c>
       <c r="I75" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="24"/>
@@ -6154,7 +6167,7 @@
       </c>
       <c r="S75" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (74, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 90, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (74, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 38, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
@@ -6163,19 +6176,19 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 4 people. Simply perfect.'</v>
+        <v>'Room for 3 people. Simply perfect.'</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="19"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F76" s="3" t="str">
         <f t="shared" si="20"/>
@@ -6183,7 +6196,7 @@
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="21"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="22"/>
@@ -6191,7 +6204,7 @@
       </c>
       <c r="I76" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="24"/>
@@ -6210,19 +6223,19 @@
       </c>
       <c r="N76" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O76" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P76" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q76" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R76" s="1" t="str">
         <f t="shared" si="27"/>
@@ -6230,7 +6243,7 @@
       </c>
       <c r="S76" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (75, 4, 'Room for 4 people. Simply perfect.', 'PREMIUM', 40, 'EUR', 40, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (75, 3, 'Room for 3 people. Simply perfect.', 'STANDARD', 48, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
@@ -6239,19 +6252,19 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 1 people. Simply perfect.'</v>
+        <v>'Room for 3 people. Simply perfect.'</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="19"/>
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F77" s="3" t="str">
         <f t="shared" si="20"/>
@@ -6259,7 +6272,7 @@
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="21"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="22"/>
@@ -6286,19 +6299,19 @@
       </c>
       <c r="N77" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O77" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P77" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q77" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R77" s="1" t="str">
         <f t="shared" si="27"/>
@@ -6306,7 +6319,7 @@
       </c>
       <c r="S77" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (76, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 14, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (76, 3, 'Room for 3 people. Simply perfect.', 'STANDARD', 45, 'EUR', 30, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
@@ -6315,11 +6328,11 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 4 people. Simply perfect.'</v>
+        <v>'Room for 5 people. Simply perfect.'</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -6327,7 +6340,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="19"/>
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F78" s="3" t="str">
         <f t="shared" si="20"/>
@@ -6335,7 +6348,7 @@
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="21"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="22"/>
@@ -6343,7 +6356,7 @@
       </c>
       <c r="I78" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J78" t="str">
         <f t="shared" si="24"/>
@@ -6382,7 +6395,7 @@
       </c>
       <c r="S78" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (77, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 48, 'EUR', 40, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (77, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 85, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
@@ -6399,11 +6412,11 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="19"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F79" s="3" t="str">
         <f t="shared" si="20"/>
@@ -6438,19 +6451,19 @@
       </c>
       <c r="N79" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O79" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P79" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q79" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R79" s="1" t="str">
         <f t="shared" si="27"/>
@@ -6458,7 +6471,7 @@
       </c>
       <c r="S79" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (78, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 12, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (78, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 14, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
@@ -6467,11 +6480,11 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 4 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -6479,7 +6492,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F80" s="3" t="str">
         <f t="shared" si="20"/>
@@ -6487,7 +6500,7 @@
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="21"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="22"/>
@@ -6534,7 +6547,7 @@
       </c>
       <c r="S80" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (79, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 44, 'EUR', 40, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (79, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 24, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
@@ -6543,11 +6556,11 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -6555,7 +6568,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="19"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F81" s="3" t="str">
         <f t="shared" si="20"/>
@@ -6563,7 +6576,7 @@
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="21"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="22"/>
@@ -6571,7 +6584,7 @@
       </c>
       <c r="I81" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J81" t="str">
         <f t="shared" si="24"/>
@@ -6610,7 +6623,7 @@
       </c>
       <c r="S81" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (80, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 70, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (80, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 10, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
@@ -6619,19 +6632,19 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 3 people. Simply perfect.'</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="19"/>
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="F82" s="3" t="str">
         <f t="shared" si="20"/>
@@ -6639,7 +6652,7 @@
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="21"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="22"/>
@@ -6666,19 +6679,19 @@
       </c>
       <c r="N82" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O82" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P82" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q82" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R82" s="1" t="str">
         <f t="shared" si="27"/>
@@ -6686,7 +6699,7 @@
       </c>
       <c r="S82" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (81, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 85, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (81, 3, 'Room for 3 people. Simply perfect.', 'STANDARD', 33, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
@@ -6695,11 +6708,11 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 6 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -6707,7 +6720,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="19"/>
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="F83" s="3" t="str">
         <f t="shared" si="20"/>
@@ -6715,7 +6728,7 @@
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="21"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="22"/>
@@ -6723,7 +6736,7 @@
       </c>
       <c r="I83" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" si="24"/>
@@ -6762,7 +6775,7 @@
       </c>
       <c r="S83" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (82, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 90, 'EUR', 60, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (82, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 17, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
@@ -6771,19 +6784,19 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 3 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="19"/>
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F84" s="3" t="str">
         <f t="shared" si="20"/>
@@ -6791,7 +6804,7 @@
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="21"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="22"/>
@@ -6818,19 +6831,19 @@
       </c>
       <c r="N84" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O84" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P84" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q84" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R84" s="1" t="str">
         <f t="shared" si="27"/>
@@ -6838,7 +6851,7 @@
       </c>
       <c r="S84" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (83, 3, 'Room for 3 people. Simply perfect.', 'STANDARD', 39, 'EUR', 30, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (83, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 16, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
@@ -6859,7 +6872,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="19"/>
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F85" s="3" t="str">
         <f t="shared" si="20"/>
@@ -6875,7 +6888,7 @@
       </c>
       <c r="I85" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J85" t="str">
         <f t="shared" si="24"/>
@@ -6914,7 +6927,7 @@
       </c>
       <c r="S85" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (84, 3, 'Room for 3 people. Simply perfect.', 'STANDARD', 54, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (84, 3, 'Room for 3 people. Simply perfect.', 'STANDARD', 33, 'EUR', 30, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
@@ -6923,19 +6936,19 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 3 people. Simply perfect.'</v>
+        <v>'Room for 2 people. Simply perfect.'</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="19"/>
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F86" s="3" t="str">
         <f t="shared" si="20"/>
@@ -6943,7 +6956,7 @@
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="21"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="22"/>
@@ -6970,19 +6983,19 @@
       </c>
       <c r="N86" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O86" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P86" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q86" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R86" s="1" t="str">
         <f t="shared" si="27"/>
@@ -6990,7 +7003,7 @@
       </c>
       <c r="S86" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (85, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 51, 'EUR', 30, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (85, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 20, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
@@ -6999,19 +7012,19 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 3 people. Simply perfect.'</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="19"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F87" s="3" t="str">
         <f t="shared" si="20"/>
@@ -7019,7 +7032,7 @@
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="21"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="22"/>
@@ -7027,7 +7040,7 @@
       </c>
       <c r="I87" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J87" t="str">
         <f t="shared" si="24"/>
@@ -7046,19 +7059,19 @@
       </c>
       <c r="N87" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O87" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P87" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q87" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R87" s="1" t="str">
         <f t="shared" si="27"/>
@@ -7066,7 +7079,7 @@
       </c>
       <c r="S87" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (86, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 28, 'EUR', 20, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (86, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 42, 'EUR', 30, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
@@ -7075,11 +7088,11 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 1 people. Simply perfect.'</v>
+        <v>'Room for 3 people. Simply perfect.'</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -7087,7 +7100,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="19"/>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F88" s="3" t="str">
         <f t="shared" si="20"/>
@@ -7095,7 +7108,7 @@
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="21"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="22"/>
@@ -7103,7 +7116,7 @@
       </c>
       <c r="I88" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J88" t="str">
         <f t="shared" si="24"/>
@@ -7142,7 +7155,7 @@
       </c>
       <c r="S88" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (87, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 15, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (87, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 42, 'EUR', 30, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
@@ -7163,7 +7176,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="19"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F89" s="3" t="str">
         <f t="shared" si="20"/>
@@ -7179,7 +7192,7 @@
       </c>
       <c r="I89" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J89" t="str">
         <f t="shared" si="24"/>
@@ -7218,7 +7231,7 @@
       </c>
       <c r="S89" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (88, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 90, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (88, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 85, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
@@ -7227,11 +7240,11 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 1 people. Simply perfect.'</v>
+        <v>'Room for 5 people. Simply perfect.'</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -7239,7 +7252,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="19"/>
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F90" s="3" t="str">
         <f t="shared" si="20"/>
@@ -7247,7 +7260,7 @@
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="21"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="22"/>
@@ -7255,7 +7268,7 @@
       </c>
       <c r="I90" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J90" t="str">
         <f t="shared" si="24"/>
@@ -7294,7 +7307,7 @@
       </c>
       <c r="S90" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (89, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 17, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (89, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 70, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
@@ -7303,19 +7316,19 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 1 people. Simply perfect.'</v>
+        <v>'Room for 4 people. Simply perfect.'</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F91" s="3" t="str">
         <f t="shared" si="20"/>
@@ -7323,7 +7336,7 @@
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="21"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="22"/>
@@ -7331,7 +7344,7 @@
       </c>
       <c r="I91" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J91" t="str">
         <f t="shared" si="24"/>
@@ -7350,19 +7363,19 @@
       </c>
       <c r="N91" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O91" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P91" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q91" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R91" s="1" t="str">
         <f t="shared" si="27"/>
@@ -7370,7 +7383,7 @@
       </c>
       <c r="S91" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (90, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 10, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (90, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 40, 'EUR', 40, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
@@ -7379,19 +7392,19 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 3 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="19"/>
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F92" s="3" t="str">
         <f t="shared" si="20"/>
@@ -7399,7 +7412,7 @@
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="21"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="22"/>
@@ -7407,7 +7420,7 @@
       </c>
       <c r="I92" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J92" t="str">
         <f t="shared" si="24"/>
@@ -7426,19 +7439,19 @@
       </c>
       <c r="N92" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O92" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P92" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q92" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R92" s="1" t="str">
         <f t="shared" si="27"/>
@@ -7446,7 +7459,7 @@
       </c>
       <c r="S92" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (91, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 48, 'EUR', 30, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (91, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 12, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
@@ -7455,19 +7468,19 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="19"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F93" s="3" t="str">
         <f t="shared" si="20"/>
@@ -7475,7 +7488,7 @@
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="21"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="22"/>
@@ -7483,7 +7496,7 @@
       </c>
       <c r="I93" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J93" t="str">
         <f t="shared" si="24"/>
@@ -7502,19 +7515,19 @@
       </c>
       <c r="N93" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O93" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P93" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q93" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R93" s="1" t="str">
         <f t="shared" si="27"/>
@@ -7522,7 +7535,7 @@
       </c>
       <c r="S93" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (92, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 24, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (92, 1, 'Room for 1 people. Simply perfect.', 'STANDARD', 15, 'EUR', 10, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
@@ -7531,11 +7544,11 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 3 people. Simply perfect.'</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -7543,7 +7556,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="19"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F94" s="3" t="str">
         <f t="shared" si="20"/>
@@ -7551,7 +7564,7 @@
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="21"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="22"/>
@@ -7598,7 +7611,7 @@
       </c>
       <c r="S94" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (93, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 22, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (93, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 33, 'EUR', 30, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
@@ -7607,11 +7620,11 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 4 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -7619,7 +7632,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="19"/>
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F95" s="3" t="str">
         <f t="shared" si="20"/>
@@ -7627,7 +7640,7 @@
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="21"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="22"/>
@@ -7674,7 +7687,7 @@
       </c>
       <c r="S95" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (94, 4, 'Room for 4 people. Simply perfect.', 'STANDARD', 56, 'EUR', 40, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (94, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 78, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
@@ -7691,11 +7704,11 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="19"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F96" s="3" t="str">
         <f t="shared" si="20"/>
@@ -7730,19 +7743,19 @@
       </c>
       <c r="N96" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O96" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P96" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q96" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R96" s="1" t="str">
         <f t="shared" si="27"/>
@@ -7750,7 +7763,7 @@
       </c>
       <c r="S96" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (95, 2, 'Room for 2 people. Simply perfect.', 'STANDARD', 28, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (95, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 24, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
@@ -7759,19 +7772,19 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 6 people. Simply perfect.'</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'PREMIUM'</v>
+        <v>'STANDARD'</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="19"/>
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F97" s="3" t="str">
         <f t="shared" si="20"/>
@@ -7779,7 +7792,7 @@
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="21"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="22"/>
@@ -7787,7 +7800,7 @@
       </c>
       <c r="I97" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'BATH'</v>
+        <v>'SHOWER'</v>
       </c>
       <c r="J97" t="str">
         <f t="shared" si="24"/>
@@ -7806,19 +7819,19 @@
       </c>
       <c r="N97" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="O97" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="P97" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="Q97" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'true'</v>
+        <v>'false'</v>
       </c>
       <c r="R97" s="1" t="str">
         <f t="shared" si="27"/>
@@ -7826,7 +7839,7 @@
       </c>
       <c r="S97" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (96, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 95, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (96, 6, 'Room for 6 people. Simply perfect.', 'STANDARD', 108, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
@@ -7835,19 +7848,19 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 5 people. Simply perfect.'</v>
+        <v>'Room for 1 people. Simply perfect.'</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>'STANDARD'</v>
+        <v>'PREMIUM'</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="19"/>
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="F98" s="3" t="str">
         <f t="shared" si="20"/>
@@ -7855,7 +7868,7 @@
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="21"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="22"/>
@@ -7863,7 +7876,7 @@
       </c>
       <c r="I98" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J98" t="str">
         <f t="shared" si="24"/>
@@ -7882,19 +7895,19 @@
       </c>
       <c r="N98" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="O98" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="P98" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="Q98" s="1" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>'false'</v>
+        <v>'true'</v>
       </c>
       <c r="R98" s="1" t="str">
         <f t="shared" si="27"/>
@@ -7902,7 +7915,7 @@
       </c>
       <c r="S98" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (97, 5, 'Room for 5 people. Simply perfect.', 'STANDARD', 70, 'EUR', 50, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'false', 'false', 'false', 'false', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (97, 1, 'Room for 1 people. Simply perfect.', 'PREMIUM', 18, 'EUR', 10, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
@@ -7911,11 +7924,11 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 2 people. Simply perfect.'</v>
+        <v>'Room for 3 people. Simply perfect.'</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -7923,7 +7936,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="19"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F99" s="3" t="str">
         <f t="shared" si="20"/>
@@ -7931,7 +7944,7 @@
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="21"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="22"/>
@@ -7978,7 +7991,7 @@
       </c>
       <c r="S99" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (98, 2, 'Room for 2 people. Simply perfect.', 'PREMIUM', 34, 'EUR', 20, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (98, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 33, 'EUR', 30, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
@@ -7987,11 +8000,11 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 6 people. Simply perfect.'</v>
+        <v>'Room for 5 people. Simply perfect.'</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -7999,7 +8012,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="19"/>
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F100" s="3" t="str">
         <f t="shared" si="20"/>
@@ -8007,7 +8020,7 @@
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="21"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="22"/>
@@ -8015,7 +8028,7 @@
       </c>
       <c r="I100" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J100" t="str">
         <f t="shared" si="24"/>
@@ -8054,7 +8067,7 @@
       </c>
       <c r="S100" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (99, 6, 'Room for 6 people. Simply perfect.', 'PREMIUM', 108, 'EUR', 60, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (99, 5, 'Room for 5 people. Simply perfect.', 'PREMIUM', 65, 'EUR', 50, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
@@ -8063,11 +8076,11 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>'Room for 3 people. Simply perfect.'</v>
+        <v>'Room for 4 people. Simply perfect.'</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -8075,7 +8088,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F101" s="3" t="str">
         <f t="shared" si="20"/>
@@ -8083,7 +8096,7 @@
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="21"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="22"/>
@@ -8091,7 +8104,7 @@
       </c>
       <c r="I101" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>'SHOWER'</v>
+        <v>'BATH'</v>
       </c>
       <c r="J101" t="str">
         <f t="shared" si="24"/>
@@ -8130,7 +8143,7 @@
       </c>
       <c r="S101" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_currency, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (100, 3, 'Room for 3 people. Simply perfect.', 'PREMIUM', 45, 'EUR', 30, 'm2', 'SHOWER', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
+        <v>INSERT INTO room (room_no, no_people, description, room_type, price_per_night_value, price_per_night_currency, room_size_value, room_size_unit, bathroom_type, status, version, created_at, modified_at, is_balcony, is_coffee_machine, is_outstanding_view, is_rest_area, is_tv)  VALUES (100, 4, 'Room for 4 people. Simply perfect.', 'PREMIUM', 44, 'EUR', 40, 'm2', 'BATH', 'ACTIVE', 1, '2022-05-01 20:00:00.000000', '2022-05-01 20:00:00.000000', 'true', 'true', 'true', 'true', 'true');</v>
       </c>
     </row>
   </sheetData>
@@ -8138,4 +8151,676 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0F230B-4952-4D5A-BE7D-1F8A96DD02CD}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="64.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"(" &amp; $A2 &amp; ", "&amp; $B2 &amp; ", "&amp; $C2 &amp; "),"</f>
+        <v>(1, 1, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D41" si="0">"(" &amp; $A3 &amp; ", "&amp; $B3 &amp; ", "&amp; $C3 &amp; "),"</f>
+        <v>(2, 1, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>B2+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 2, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>B4</f>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 2, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 3, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>B6</f>
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 3, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>B6+1</f>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 4, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>B8</f>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, 4, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>B8+1</f>
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>(9, 5, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>B10</f>
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>(10, 5, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>B10+1</f>
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>(11, 6, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>B12</f>
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>(12, 6, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f>B12+1</f>
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>(13, 7, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>(14, 7, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f>B14+1</f>
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>(15, 8, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f>B16</f>
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>(16, 8, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f>B16+1</f>
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>(17, 9, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f>B18</f>
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>(18, 9, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f>B18+1</f>
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>(19, 10, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f>B20</f>
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>(20, 10, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f>B20+1</f>
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>(21, 11, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f>B22</f>
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>(22, 11, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f>B22+1</f>
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>(23, 12, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f>B24</f>
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>(24, 12, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f>B24+1</f>
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>(25, 13, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f>B26</f>
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>(26, 13, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f>B26+1</f>
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>(27, 14, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f>B28</f>
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>(28, 14, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f>B28+1</f>
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>(29, 15, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f>B30</f>
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>(30, 15, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f>B30+1</f>
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>(31, 16, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f>B32</f>
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>(32, 16, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f>B32+1</f>
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>(33, 17, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f>B34</f>
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>(34, 17, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f>B34+1</f>
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>(35, 18, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f>B36</f>
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>(36, 18, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f>B36+1</f>
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>(37, 19, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f>B38</f>
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>(38, 19, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f>B38+1</f>
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>(39, 20, 'https://www.visitlondon.com/where-to-stay/hotel/radisson-blu-edwardian'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f>B40</f>
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>(40, 20, 'http://www.bedbreakfast.ee/wp-content/uploads/2016/10/hotel-room.jpg'),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B5" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>